--- a/Documents/Completed Tasks/User Stories.xlsx
+++ b/Documents/Completed Tasks/User Stories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Semester 4\2025S-Bros-of-Balayya\Documents\Completed Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navya\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95333269-2E64-49C6-BA28-8AA93037B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82DBE82-2A20-4DE1-A965-39BA7916B639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93236B43-09F6-4FE2-9EF1-44675FEBA38D}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>Upload File</t>
   </si>
   <si>
-    <t>As a user, I want to upload an audio/video file so that I can generate a summary.</t>
-  </si>
-  <si>
-    <t>Users can select a file, File is stored in Firebase, UI shows upload status</t>
-  </si>
-  <si>
     <t>File Upload</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>Transcribe Audio</t>
   </si>
   <si>
-    <t>As a user, I want my uploaded audio to be transcribed into text automatically.</t>
-  </si>
-  <si>
-    <t>API processes audio, Returns transcription, Displays text in UI</t>
-  </si>
-  <si>
     <t>Transcription</t>
   </si>
   <si>
@@ -92,12 +80,6 @@
     <t>Handle User Authentication</t>
   </si>
   <si>
-    <t>As a user, I want to be able to register, log in, and log out of my account</t>
-  </si>
-  <si>
-    <t>Users can register with a username and password. Invalid credential show error. Users can log in and log out.</t>
-  </si>
-  <si>
     <t>Authentication</t>
   </si>
   <si>
@@ -107,24 +89,12 @@
     <t>File Upload Progress</t>
   </si>
   <si>
-    <t>As a user, I want to see the progress of my file upload.</t>
-  </si>
-  <si>
-    <t>Progress bar shows upload status. Error message if upload fails</t>
-  </si>
-  <si>
     <t>US_05</t>
   </si>
   <si>
     <t>Improve UI Design</t>
   </si>
   <si>
-    <t>As a user, I want a clean and user-friendly interface.</t>
-  </si>
-  <si>
-    <t>UI is responsive, Easy navigation</t>
-  </si>
-  <si>
     <t>UI/UX</t>
   </si>
   <si>
@@ -134,24 +104,12 @@
     <t>Handle Different Formats</t>
   </si>
   <si>
-    <t>As a user, I want support for different file types (MP3, MP4, WAV).</t>
-  </si>
-  <si>
-    <t>MP3, MP4, WAV files are accepted, Unsupported formats show an error</t>
-  </si>
-  <si>
     <t>US_07</t>
   </si>
   <si>
     <t>Handle User Profile</t>
   </si>
   <si>
-    <t>As a user, I want to be able to view and update my profile information.</t>
-  </si>
-  <si>
-    <t>Users can view and edit their username, email, and password</t>
-  </si>
-  <si>
     <t>Profile Management</t>
   </si>
   <si>
@@ -161,12 +119,6 @@
     <t>Generate Summary (Basic)</t>
   </si>
   <si>
-    <t>As a user, I want to get an summary of my transcription.</t>
-  </si>
-  <si>
-    <t>Summary is generated, UI displays summary</t>
-  </si>
-  <si>
     <t>Summarization</t>
   </si>
   <si>
@@ -176,12 +128,6 @@
     <t>Personalized Summary</t>
   </si>
   <si>
-    <t>As a user, I want to get a summary based on my role (e.g., student, journalist, manager).</t>
-  </si>
-  <si>
-    <t>User selects role, AI tailors summary, Different summaries for different users</t>
-  </si>
-  <si>
     <t>Personalization</t>
   </si>
   <si>
@@ -191,12 +137,6 @@
     <t>Notifications for Summary Completion</t>
   </si>
   <si>
-    <t>As a user, I want to receive a notification when my summary is ready</t>
-  </si>
-  <si>
-    <t>Users receive a notification in UI once the summary has been generated</t>
-  </si>
-  <si>
     <t>Notifications</t>
   </si>
   <si>
@@ -206,12 +146,6 @@
     <t>View Video Previews</t>
   </si>
   <si>
-    <t>As a user, I want to view a preview of my uploaded video before generating a summary</t>
-  </si>
-  <si>
-    <t>Users can click on a thumbnail or play button to preview their video. The video is played within the website</t>
-  </si>
-  <si>
     <t>Media Management</t>
   </si>
   <si>
@@ -221,24 +155,12 @@
     <t>Support for Larger Files</t>
   </si>
   <si>
-    <t>As a user, I want to upload larger files without issues</t>
-  </si>
-  <si>
-    <t>Large files upload successfully without crashing</t>
-  </si>
-  <si>
     <t>US_13</t>
   </si>
   <si>
     <t>Share Summary</t>
   </si>
   <si>
-    <t>As a user, I want to share my summary via email or link.</t>
-  </si>
-  <si>
-    <t>Share button, Copy link function</t>
-  </si>
-  <si>
     <t>Sharing</t>
   </si>
   <si>
@@ -248,13 +170,91 @@
     <t>Export Summary</t>
   </si>
   <si>
-    <t>As a user, I want to download my summary as a PDF or TXT file.</t>
-  </si>
-  <si>
-    <t>Download button available, Summary downloads correctly</t>
-  </si>
-  <si>
     <t>Exporting</t>
+  </si>
+  <si>
+    <t>The application supports MP3, MP4, and WAV formats. Displays an error for unsupported formats.</t>
+  </si>
+  <si>
+    <t>Users can view and edit username, email, and password. Profile changes are saved</t>
+  </si>
+  <si>
+    <t>Summary highlights the most important points. Summary is concise and easy to read.</t>
+  </si>
+  <si>
+    <t>Provides a thumbnail or play button for video preview. Users can click on it to view the video directly in the app.</t>
+  </si>
+  <si>
+    <t>As a student, I want the system to automatically transcribe the audio I upload into text, so I can easily access and review the content.</t>
+  </si>
+  <si>
+    <t>The system allows students to upload audio files, automatically transcribes it into text and displays the transcription</t>
+  </si>
+  <si>
+    <t>As a student, I want to get a summary based on my role so that the content is relevant and useful to me.</t>
+  </si>
+  <si>
+    <t>User can select role from predefined options. Summary output is tailored to the selected role, with detail, and focus adjusted accordingly.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to receive a notification when my summary is ready, so that I don’t have to keep checking manually.</t>
+  </si>
+  <si>
+    <t>A notification is displayed in the UI when the summary generation process is complete</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to upload larger files without issues, so that I can summarize long-form content without interruptions.</t>
+  </si>
+  <si>
+    <t>Upload progress is visible to the user with clear feedback (e.g., progress bar). No crashes or timeouts during upload.</t>
+  </si>
+  <si>
+    <t>As a student, I want a clean and user-friendly interface, so that I can easily navigate and interact with the application without confusion.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want the application to support different file types (MP3, MP4, WAV), so that I can upload various audio and video formats for transcription and summarization.</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to view and update my profile information, so that I can keep my details up to date and manage my account effectively.</t>
+  </si>
+  <si>
+    <t>As a project manger, I want to receive a basic summary of my transcription, so that I can quickly understand the key points of the transcribed content.</t>
+  </si>
+  <si>
+    <t>As a content creator, I want to view a preview of my uploaded video before generating a summary, so that I can verify the content before proceeding with the summary generation.</t>
+  </si>
+  <si>
+    <t>The system includes a share button and a copy link function, allowing the user to easily share the summary via email.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to share my summary via email or a link so that I can easily share it with others.</t>
+  </si>
+  <si>
+    <t>As a student, I want to download my summary as a PDF file so that I can save or print it for future reference.</t>
+  </si>
+  <si>
+    <t>The system should offer a download button that allows the user to download the summary in PDF format with accurate formatting and functionality.</t>
+  </si>
+  <si>
+    <t>As a student, I want to upload an audio/video file so that I can generate a summary based on its content.</t>
+  </si>
+  <si>
+    <t>The system allows users to select a file for upload. The UI displays real-time upload status to indicate progress and completion.</t>
+  </si>
+  <si>
+    <t>As a Manager, I want to be able to register, log in, and log out of my account so that I can securely access and manage my content.</t>
+  </si>
+  <si>
+    <t>The system allows users to register using a username and password. Invalid credentials trigger error messages.</t>
+  </si>
+  <si>
+    <t>As a content creator, I want to see the progress of my file upload so that I know the current status and can confirm when it's complete.</t>
+  </si>
+  <si>
+    <t>The system displays a progress bar indicating real-time upload status. If the upload fails, an error message is shown to the user.</t>
+  </si>
+  <si>
+    <t>The user interface is responsive, intuitive, and easy to navigate, ensuring a smooth and accessible user experience.</t>
   </si>
 </sst>
 </file>
@@ -311,40 +311,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,357 +659,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC2A6BC-0756-4A8A-AD4B-06078A8E86DA}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="9"/>
-    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.26953125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="46" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6">
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6">
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
+    <row r="9" spans="1:6" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6">
+    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    <row r="15" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="6">
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="10"/>
-      <c r="D16"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="10"/>
-      <c r="D17"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
-      <c r="D18"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-      <c r="D19"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="10"/>
-      <c r="D20"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-      <c r="D21"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
